--- a/Code/Results/Cases/Case_2_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008293371395922</v>
+        <v>1.03056934243225</v>
       </c>
       <c r="D2">
-        <v>1.027340065793553</v>
+        <v>1.039711758461382</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.027828488770891</v>
+        <v>1.046522837754324</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045613075249735</v>
+        <v>1.036417295402131</v>
       </c>
       <c r="J2">
-        <v>1.030228827383805</v>
+        <v>1.035709862428591</v>
       </c>
       <c r="K2">
-        <v>1.038431210044422</v>
+        <v>1.042496168756128</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.038913278436957</v>
+        <v>1.049288036417654</v>
       </c>
       <c r="N2">
-        <v>1.014014028705613</v>
+        <v>1.015910621668556</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011806308888088</v>
+        <v>1.031314871927964</v>
       </c>
       <c r="D3">
-        <v>1.030016163837119</v>
+        <v>1.040307387316647</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.03115893101434</v>
+        <v>1.04729102970642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04650398310122</v>
+        <v>1.036562709037499</v>
       </c>
       <c r="J3">
-        <v>1.031980215806515</v>
+        <v>1.036097941903592</v>
       </c>
       <c r="K3">
-        <v>1.040278863849669</v>
+        <v>1.042902638045458</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.04140806546689</v>
+        <v>1.049868000960313</v>
       </c>
       <c r="N3">
-        <v>1.014597272149013</v>
+        <v>1.016039493011981</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014039617907389</v>
+        <v>1.031797890861302</v>
       </c>
       <c r="D4">
-        <v>1.031720265234255</v>
+        <v>1.040693350401313</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.033281544736475</v>
+        <v>1.047789133064154</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047062238491596</v>
+        <v>1.036655910832322</v>
       </c>
       <c r="J4">
-        <v>1.033090881617655</v>
+        <v>1.036348970242741</v>
       </c>
       <c r="K4">
-        <v>1.041450353851362</v>
+        <v>1.043165503753027</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.042994222502038</v>
+        <v>1.050243645339527</v>
       </c>
       <c r="N4">
-        <v>1.01496711317161</v>
+        <v>1.016122837147318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014969237665789</v>
+        <v>1.032001096481772</v>
       </c>
       <c r="D5">
-        <v>1.032430240199727</v>
+        <v>1.040855739320687</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.034166341328218</v>
+        <v>1.04799878053123</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047292634435527</v>
+        <v>1.036694878916183</v>
       </c>
       <c r="J5">
-        <v>1.033552514271097</v>
+        <v>1.036454480898137</v>
       </c>
       <c r="K5">
-        <v>1.0419372082578</v>
+        <v>1.043275975848731</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.043654466513146</v>
+        <v>1.050401652656046</v>
       </c>
       <c r="N5">
-        <v>1.015120823963241</v>
+        <v>1.016157863973619</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015124789189348</v>
+        <v>1.032035224014672</v>
       </c>
       <c r="D6">
-        <v>1.032549075572918</v>
+        <v>1.040883012703132</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.034314465715416</v>
+        <v>1.04803399555557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047331069004377</v>
+        <v>1.036701409260948</v>
       </c>
       <c r="J6">
-        <v>1.033629717519787</v>
+        <v>1.036472195293524</v>
       </c>
       <c r="K6">
-        <v>1.042018625963258</v>
+        <v>1.043294522409025</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.043764943273271</v>
+        <v>1.050428187794795</v>
       </c>
       <c r="N6">
-        <v>1.015146529961322</v>
+        <v>1.016163744470717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014052075587717</v>
+        <v>1.031800605539538</v>
       </c>
       <c r="D7">
-        <v>1.03172977701193</v>
+        <v>1.040695519741513</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.033293396828605</v>
+        <v>1.047791933424677</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047065333840229</v>
+        <v>1.036656432367382</v>
       </c>
       <c r="J7">
-        <v>1.033097070611698</v>
+        <v>1.036350380168019</v>
       </c>
       <c r="K7">
-        <v>1.04145688122701</v>
+        <v>1.043166980032375</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.043003070347677</v>
+        <v>1.050245756303728</v>
       </c>
       <c r="N7">
-        <v>1.014969173968763</v>
+        <v>1.016123305221472</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009488987498234</v>
+        <v>1.030821169838965</v>
       </c>
       <c r="D8">
-        <v>1.028250259080661</v>
+        <v>1.039912938673287</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.028960864518239</v>
+        <v>1.046782236859284</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04591797627422</v>
+        <v>1.036466622563597</v>
       </c>
       <c r="J8">
-        <v>1.030825469960037</v>
+        <v>1.035841032528063</v>
       </c>
       <c r="K8">
-        <v>1.039060690840521</v>
+        <v>1.042633566553951</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.03976232743794</v>
+        <v>1.049483960754287</v>
       </c>
       <c r="N8">
-        <v>1.014212726959609</v>
+        <v>1.015954183228435</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001131059469579</v>
+        <v>1.029100047882665</v>
       </c>
       <c r="D9">
-        <v>1.021900818124247</v>
+        <v>1.038538240625641</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.02106848808801</v>
+        <v>1.045011022084601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043753445605226</v>
+        <v>1.036125366151758</v>
       </c>
       <c r="J9">
-        <v>1.026643940236457</v>
+        <v>1.034942903233105</v>
       </c>
       <c r="K9">
-        <v>1.034648289190924</v>
+        <v>1.041692560507693</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.033828747801392</v>
+        <v>1.048144482254137</v>
       </c>
       <c r="N9">
-        <v>1.01282008074435</v>
+        <v>1.01565585002003</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9953276957813715</v>
+        <v>1.02795595516783</v>
       </c>
       <c r="D10">
-        <v>1.017510462278666</v>
+        <v>1.037624790379215</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.015619315685884</v>
+        <v>1.04383572226333</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042209775688378</v>
+        <v>1.035893343492465</v>
       </c>
       <c r="J10">
-        <v>1.023727924074636</v>
+        <v>1.03434382903707</v>
       </c>
       <c r="K10">
-        <v>1.031570597026558</v>
+        <v>1.04106459379581</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.029712171218697</v>
+        <v>1.047253556363683</v>
       </c>
       <c r="N10">
-        <v>1.011848854506457</v>
+        <v>1.015456774259791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9927555856185346</v>
+        <v>1.027461362771713</v>
       </c>
       <c r="D11">
-        <v>1.01556951705482</v>
+        <v>1.037229996403466</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.013211923247899</v>
+        <v>1.043328139279059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041516365197864</v>
+        <v>1.035791812943961</v>
       </c>
       <c r="J11">
-        <v>1.022432877382755</v>
+        <v>1.034084363562125</v>
       </c>
       <c r="K11">
-        <v>1.030203669188203</v>
+        <v>1.040792546138683</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.027888910227181</v>
+        <v>1.046868287116006</v>
       </c>
       <c r="N11">
-        <v>1.011417520951748</v>
+        <v>1.015370533692701</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9917909041152972</v>
+        <v>1.027277772404786</v>
       </c>
       <c r="D12">
-        <v>1.01484234133598</v>
+        <v>1.037083464950837</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.012310217901926</v>
+        <v>1.043139802391886</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041254946288654</v>
+        <v>1.03575394100228</v>
       </c>
       <c r="J12">
-        <v>1.021946797333898</v>
+        <v>1.033987978491677</v>
       </c>
       <c r="K12">
-        <v>1.029690604816508</v>
+        <v>1.040691476873128</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.02720531365588</v>
+        <v>1.046725259081031</v>
       </c>
       <c r="N12">
-        <v>1.011255626869955</v>
+        <v>1.015338494647061</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9919982582275348</v>
+        <v>1.027317147551598</v>
       </c>
       <c r="D13">
-        <v>1.014998608370558</v>
+        <v>1.037114891316513</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.012503980827249</v>
+        <v>1.043180192114548</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04131119767385</v>
+        <v>1.035762071844096</v>
       </c>
       <c r="J13">
-        <v>1.022051294238396</v>
+        <v>1.034008653758916</v>
       </c>
       <c r="K13">
-        <v>1.029800902868879</v>
+        <v>1.040713157394197</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.027352238952059</v>
+        <v>1.046755935515134</v>
       </c>
       <c r="N13">
-        <v>1.011290430565416</v>
+        <v>1.015345367370648</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9926760364837067</v>
+        <v>1.027446184608554</v>
       </c>
       <c r="D14">
-        <v>1.01550953677938</v>
+        <v>1.037217881758977</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.013137542646804</v>
+        <v>1.043312567158637</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041494835479389</v>
+        <v>1.0357886856761</v>
       </c>
       <c r="J14">
-        <v>1.022392801757809</v>
+        <v>1.034076396498445</v>
       </c>
       <c r="K14">
-        <v>1.030161368850364</v>
+        <v>1.040784192093688</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.027832534977396</v>
+        <v>1.046856462769658</v>
       </c>
       <c r="N14">
-        <v>1.011404173299741</v>
+        <v>1.015367885443857</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9930923956636671</v>
+        <v>1.027525704992002</v>
       </c>
       <c r="D15">
-        <v>1.015823505084924</v>
+        <v>1.037281352552051</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.013526898875266</v>
+        <v>1.04339415463166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041607466812704</v>
+        <v>1.035805062293326</v>
       </c>
       <c r="J15">
-        <v>1.022602542286771</v>
+        <v>1.034118134010512</v>
       </c>
       <c r="K15">
-        <v>1.03038275253304</v>
+        <v>1.040827956488704</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.028127611769001</v>
+        <v>1.046918411336105</v>
       </c>
       <c r="N15">
-        <v>1.011474029895639</v>
+        <v>1.015381758862536</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9954971179495903</v>
+        <v>1.027988796814391</v>
       </c>
       <c r="D16">
-        <v>1.017638416664379</v>
+        <v>1.037651007235495</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.01577805255317</v>
+        <v>1.043869437081742</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042255260047459</v>
+        <v>1.035900059404851</v>
       </c>
       <c r="J16">
-        <v>1.023813174822338</v>
+        <v>1.034361047705402</v>
       </c>
       <c r="K16">
-        <v>1.031660578555</v>
+        <v>1.041082646006521</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.029832296736091</v>
+        <v>1.047279136267389</v>
       </c>
       <c r="N16">
-        <v>1.011877248637342</v>
+        <v>1.015462496970985</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9969894151050138</v>
+        <v>1.028279499616524</v>
       </c>
       <c r="D17">
-        <v>1.018766024503458</v>
+        <v>1.037883080337851</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.017177118961327</v>
+        <v>1.044167926784074</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042654843342157</v>
+        <v>1.035959364468392</v>
       </c>
       <c r="J17">
-        <v>1.024563779284797</v>
+        <v>1.034513405285543</v>
       </c>
       <c r="K17">
-        <v>1.032452827886042</v>
+        <v>1.04124237119311</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.030890528173409</v>
+        <v>1.047505546687327</v>
       </c>
       <c r="N17">
-        <v>1.012127249976283</v>
+        <v>1.015513131622003</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.997854160704444</v>
+        <v>1.028449139402355</v>
       </c>
       <c r="D18">
-        <v>1.0194199061198</v>
+        <v>1.038018515530271</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.017988573613589</v>
+        <v>1.044342158911403</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04288550931101</v>
+        <v>1.035993853473656</v>
       </c>
       <c r="J18">
-        <v>1.02499848109689</v>
+        <v>1.03460226677478</v>
       </c>
       <c r="K18">
-        <v>1.032911639791177</v>
+        <v>1.04133552317172</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.031503860651434</v>
+        <v>1.047637656900184</v>
       </c>
       <c r="N18">
-        <v>1.012272034830763</v>
+        <v>1.015542662119673</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9981480636120319</v>
+        <v>1.028506995314499</v>
       </c>
       <c r="D19">
-        <v>1.019642219477089</v>
+        <v>1.038064707391242</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.018264487832758</v>
+        <v>1.044401589228704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042963755620117</v>
+        <v>1.036005595901423</v>
       </c>
       <c r="J19">
-        <v>1.025146180325326</v>
+        <v>1.034632565169339</v>
       </c>
       <c r="K19">
-        <v>1.033067529382345</v>
+        <v>1.041367283335988</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.031712333833762</v>
+        <v>1.047682711296998</v>
       </c>
       <c r="N19">
-        <v>1.012321228566529</v>
+        <v>1.015552730591081</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9968298966250969</v>
+        <v>1.028248301899698</v>
       </c>
       <c r="D20">
-        <v>1.018645440932554</v>
+        <v>1.037858173744377</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.017027490007685</v>
+        <v>1.044135888393976</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042612221225641</v>
+        <v>1.035953012206875</v>
       </c>
       <c r="J20">
-        <v>1.02448356976791</v>
+        <v>1.034497059381418</v>
       </c>
       <c r="K20">
-        <v>1.032368168975402</v>
+        <v>1.041225235528388</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.030777396653877</v>
+        <v>1.047481249926231</v>
       </c>
       <c r="N20">
-        <v>1.012100534832049</v>
+        <v>1.015507699396719</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9924767072284046</v>
+        <v>1.02740818299264</v>
       </c>
       <c r="D21">
-        <v>1.015359254759027</v>
+        <v>1.037187550515812</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.01295118381344</v>
+        <v>1.043273580412133</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041440865986456</v>
+        <v>1.0357808529483</v>
       </c>
       <c r="J21">
-        <v>1.02229237694652</v>
+        <v>1.034056448161345</v>
       </c>
       <c r="K21">
-        <v>1.030055369120311</v>
+        <v>1.040763274648305</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.027691277165901</v>
+        <v>1.046826857827375</v>
       </c>
       <c r="N21">
-        <v>1.011370725683221</v>
+        <v>1.015361254579493</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.98968575443996</v>
+        <v>1.026880681080028</v>
       </c>
       <c r="D22">
-        <v>1.013256977159003</v>
+        <v>1.036766555593608</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.010344737764729</v>
+        <v>1.042732583186613</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040682028531528</v>
+        <v>1.035671690183964</v>
       </c>
       <c r="J22">
-        <v>1.020885421550534</v>
+        <v>1.033779372539856</v>
       </c>
       <c r="K22">
-        <v>1.02857030729069</v>
+        <v>1.040472714314323</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.0257140116586</v>
+        <v>1.046415868429027</v>
       </c>
       <c r="N22">
-        <v>1.010902129130022</v>
+        <v>1.015269147556466</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9911705386641174</v>
+        <v>1.027160251465381</v>
       </c>
       <c r="D23">
-        <v>1.014374937742531</v>
+        <v>1.036989670438976</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.011730693159363</v>
+        <v>1.043019264387198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04108645715737</v>
+        <v>1.035729646325931</v>
       </c>
       <c r="J23">
-        <v>1.021634110311307</v>
+        <v>1.033926259471149</v>
       </c>
       <c r="K23">
-        <v>1.029360558855701</v>
+        <v>1.040626755515774</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.026765776207722</v>
+        <v>1.04663369813449</v>
       </c>
       <c r="N23">
-        <v>1.011151483816389</v>
+        <v>1.01531797804813</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9969019937037501</v>
+        <v>1.028262398565041</v>
       </c>
       <c r="D24">
-        <v>1.018699939286794</v>
+        <v>1.037869427743152</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.017095115076426</v>
+        <v>1.044150364767782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042631487747979</v>
+        <v>1.03595588283765</v>
       </c>
       <c r="J24">
-        <v>1.024519822603922</v>
+        <v>1.034504445410947</v>
       </c>
       <c r="K24">
-        <v>1.032406432859041</v>
+        <v>1.041232978438108</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.03082852800312</v>
+        <v>1.047492228436056</v>
       </c>
       <c r="N24">
-        <v>1.01211260945546</v>
+        <v>1.015510153997418</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003331184328035</v>
+        <v>1.029544422117994</v>
       </c>
       <c r="D25">
-        <v>1.023569221629535</v>
+        <v>1.038893110173925</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.023140838140135</v>
+        <v>1.045467962003917</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044330410758921</v>
+        <v>1.036214388809797</v>
       </c>
       <c r="J25">
-        <v>1.027746958556305</v>
+        <v>1.035175153515304</v>
       </c>
       <c r="K25">
-        <v>1.035812350655771</v>
+        <v>1.041935950315076</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.035390237537963</v>
+        <v>1.048490414422779</v>
       </c>
       <c r="N25">
-        <v>1.013187452552758</v>
+        <v>1.015733011252985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03056934243225</v>
+        <v>1.008293371395922</v>
       </c>
       <c r="D2">
-        <v>1.039711758461382</v>
+        <v>1.027340065793554</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.046522837754324</v>
+        <v>1.027828488770891</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036417295402131</v>
+        <v>1.045613075249735</v>
       </c>
       <c r="J2">
-        <v>1.035709862428591</v>
+        <v>1.030228827383805</v>
       </c>
       <c r="K2">
-        <v>1.042496168756128</v>
+        <v>1.038431210044422</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.049288036417654</v>
+        <v>1.038913278436957</v>
       </c>
       <c r="N2">
-        <v>1.015910621668556</v>
+        <v>1.014014028705613</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031314871927964</v>
+        <v>1.011806308888088</v>
       </c>
       <c r="D3">
-        <v>1.040307387316647</v>
+        <v>1.030016163837119</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.04729102970642</v>
+        <v>1.03115893101434</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036562709037499</v>
+        <v>1.04650398310122</v>
       </c>
       <c r="J3">
-        <v>1.036097941903592</v>
+        <v>1.031980215806515</v>
       </c>
       <c r="K3">
-        <v>1.042902638045458</v>
+        <v>1.040278863849669</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.049868000960313</v>
+        <v>1.04140806546689</v>
       </c>
       <c r="N3">
-        <v>1.016039493011981</v>
+        <v>1.014597272149012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031797890861302</v>
+        <v>1.014039617907389</v>
       </c>
       <c r="D4">
-        <v>1.040693350401313</v>
+        <v>1.031720265234254</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.047789133064154</v>
+        <v>1.033281544736474</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036655910832322</v>
+        <v>1.047062238491596</v>
       </c>
       <c r="J4">
-        <v>1.036348970242741</v>
+        <v>1.033090881617655</v>
       </c>
       <c r="K4">
-        <v>1.043165503753027</v>
+        <v>1.041450353851361</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.050243645339527</v>
+        <v>1.042994222502037</v>
       </c>
       <c r="N4">
-        <v>1.016122837147318</v>
+        <v>1.01496711317161</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032001096481772</v>
+        <v>1.014969237665789</v>
       </c>
       <c r="D5">
-        <v>1.040855739320687</v>
+        <v>1.032430240199727</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.04799878053123</v>
+        <v>1.034166341328217</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036694878916183</v>
+        <v>1.047292634435527</v>
       </c>
       <c r="J5">
-        <v>1.036454480898137</v>
+        <v>1.033552514271097</v>
       </c>
       <c r="K5">
-        <v>1.043275975848731</v>
+        <v>1.0419372082578</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.050401652656046</v>
+        <v>1.043654466513146</v>
       </c>
       <c r="N5">
-        <v>1.016157863973619</v>
+        <v>1.015120823963241</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032035224014672</v>
+        <v>1.015124789189348</v>
       </c>
       <c r="D6">
-        <v>1.040883012703132</v>
+        <v>1.032549075572918</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.04803399555557</v>
+        <v>1.034314465715417</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036701409260948</v>
+        <v>1.047331069004378</v>
       </c>
       <c r="J6">
-        <v>1.036472195293524</v>
+        <v>1.033629717519787</v>
       </c>
       <c r="K6">
-        <v>1.043294522409025</v>
+        <v>1.042018625963258</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.050428187794795</v>
+        <v>1.043764943273272</v>
       </c>
       <c r="N6">
-        <v>1.016163744470717</v>
+        <v>1.015146529961322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031800605539538</v>
+        <v>1.014052075587716</v>
       </c>
       <c r="D7">
-        <v>1.040695519741513</v>
+        <v>1.031729777011929</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.047791933424677</v>
+        <v>1.033293396828604</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036656432367382</v>
+        <v>1.047065333840229</v>
       </c>
       <c r="J7">
-        <v>1.036350380168019</v>
+        <v>1.033097070611697</v>
       </c>
       <c r="K7">
-        <v>1.043166980032375</v>
+        <v>1.04145688122701</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.050245756303728</v>
+        <v>1.043003070347677</v>
       </c>
       <c r="N7">
-        <v>1.016123305221472</v>
+        <v>1.014969173968762</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030821169838965</v>
+        <v>1.009488987498234</v>
       </c>
       <c r="D8">
-        <v>1.039912938673287</v>
+        <v>1.02825025908066</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.046782236859284</v>
+        <v>1.028960864518238</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036466622563597</v>
+        <v>1.04591797627422</v>
       </c>
       <c r="J8">
-        <v>1.035841032528063</v>
+        <v>1.030825469960037</v>
       </c>
       <c r="K8">
-        <v>1.042633566553951</v>
+        <v>1.03906069084052</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.049483960754287</v>
+        <v>1.03976232743794</v>
       </c>
       <c r="N8">
-        <v>1.015954183228435</v>
+        <v>1.014212726959609</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029100047882665</v>
+        <v>1.001131059469579</v>
       </c>
       <c r="D9">
-        <v>1.038538240625641</v>
+        <v>1.021900818124247</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.045011022084601</v>
+        <v>1.02106848808801</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036125366151758</v>
+        <v>1.043753445605226</v>
       </c>
       <c r="J9">
-        <v>1.034942903233105</v>
+        <v>1.026643940236457</v>
       </c>
       <c r="K9">
-        <v>1.041692560507693</v>
+        <v>1.034648289190924</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.048144482254137</v>
+        <v>1.033828747801393</v>
       </c>
       <c r="N9">
-        <v>1.01565585002003</v>
+        <v>1.01282008074435</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02795595516783</v>
+        <v>0.995327695781372</v>
       </c>
       <c r="D10">
-        <v>1.037624790379215</v>
+        <v>1.017510462278666</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.04383572226333</v>
+        <v>1.015619315685884</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035893343492465</v>
+        <v>1.042209775688379</v>
       </c>
       <c r="J10">
-        <v>1.03434382903707</v>
+        <v>1.023727924074636</v>
       </c>
       <c r="K10">
-        <v>1.04106459379581</v>
+        <v>1.031570597026559</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.047253556363683</v>
+        <v>1.029712171218698</v>
       </c>
       <c r="N10">
-        <v>1.015456774259791</v>
+        <v>1.011848854506457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027461362771713</v>
+        <v>0.9927555856185352</v>
       </c>
       <c r="D11">
-        <v>1.037229996403466</v>
+        <v>1.015569517054821</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.043328139279059</v>
+        <v>1.013211923247899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035791812943961</v>
+        <v>1.041516365197865</v>
       </c>
       <c r="J11">
-        <v>1.034084363562125</v>
+        <v>1.022432877382756</v>
       </c>
       <c r="K11">
-        <v>1.040792546138683</v>
+        <v>1.030203669188204</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.046868287116006</v>
+        <v>1.027888910227182</v>
       </c>
       <c r="N11">
-        <v>1.015370533692701</v>
+        <v>1.011417520951748</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027277772404786</v>
+        <v>0.9917909041152958</v>
       </c>
       <c r="D12">
-        <v>1.037083464950837</v>
+        <v>1.014842341335979</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.043139802391886</v>
+        <v>1.012310217901924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03575394100228</v>
+        <v>1.041254946288653</v>
       </c>
       <c r="J12">
-        <v>1.033987978491677</v>
+        <v>1.021946797333897</v>
       </c>
       <c r="K12">
-        <v>1.040691476873128</v>
+        <v>1.029690604816507</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.046725259081031</v>
+        <v>1.027205313655878</v>
       </c>
       <c r="N12">
-        <v>1.015338494647061</v>
+        <v>1.011255626869954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027317147551598</v>
+        <v>0.991998258227535</v>
       </c>
       <c r="D13">
-        <v>1.037114891316513</v>
+        <v>1.014998608370558</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.043180192114548</v>
+        <v>1.012503980827249</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035762071844096</v>
+        <v>1.04131119767385</v>
       </c>
       <c r="J13">
-        <v>1.034008653758916</v>
+        <v>1.022051294238396</v>
       </c>
       <c r="K13">
-        <v>1.040713157394197</v>
+        <v>1.029800902868879</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.046755935515134</v>
+        <v>1.027352238952059</v>
       </c>
       <c r="N13">
-        <v>1.015345367370648</v>
+        <v>1.011290430565416</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027446184608554</v>
+        <v>0.9926760364837062</v>
       </c>
       <c r="D14">
-        <v>1.037217881758977</v>
+        <v>1.01550953677938</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.043312567158637</v>
+        <v>1.013137542646803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0357886856761</v>
+        <v>1.041494835479389</v>
       </c>
       <c r="J14">
-        <v>1.034076396498445</v>
+        <v>1.022392801757809</v>
       </c>
       <c r="K14">
-        <v>1.040784192093688</v>
+        <v>1.030161368850364</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.046856462769658</v>
+        <v>1.027832534977395</v>
       </c>
       <c r="N14">
-        <v>1.015367885443857</v>
+        <v>1.011404173299741</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027525704992002</v>
+        <v>0.9930923956636667</v>
       </c>
       <c r="D15">
-        <v>1.037281352552051</v>
+        <v>1.015823505084924</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.04339415463166</v>
+        <v>1.013526898875266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035805062293326</v>
+        <v>1.041607466812704</v>
       </c>
       <c r="J15">
-        <v>1.034118134010512</v>
+        <v>1.022602542286771</v>
       </c>
       <c r="K15">
-        <v>1.040827956488704</v>
+        <v>1.03038275253304</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.046918411336105</v>
+        <v>1.028127611769001</v>
       </c>
       <c r="N15">
-        <v>1.015381758862536</v>
+        <v>1.011474029895638</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027988796814391</v>
+        <v>0.9954971179495899</v>
       </c>
       <c r="D16">
-        <v>1.037651007235495</v>
+        <v>1.017638416664379</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.043869437081742</v>
+        <v>1.01577805255317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035900059404851</v>
+        <v>1.042255260047459</v>
       </c>
       <c r="J16">
-        <v>1.034361047705402</v>
+        <v>1.023813174822338</v>
       </c>
       <c r="K16">
-        <v>1.041082646006521</v>
+        <v>1.031660578554999</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.047279136267389</v>
+        <v>1.029832296736091</v>
       </c>
       <c r="N16">
-        <v>1.015462496970985</v>
+        <v>1.011877248637342</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028279499616524</v>
+        <v>0.996989415105014</v>
       </c>
       <c r="D17">
-        <v>1.037883080337851</v>
+        <v>1.018766024503458</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.044167926784074</v>
+        <v>1.017177118961327</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035959364468392</v>
+        <v>1.042654843342157</v>
       </c>
       <c r="J17">
-        <v>1.034513405285543</v>
+        <v>1.024563779284797</v>
       </c>
       <c r="K17">
-        <v>1.04124237119311</v>
+        <v>1.032452827886042</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.047505546687327</v>
+        <v>1.030890528173409</v>
       </c>
       <c r="N17">
-        <v>1.015513131622003</v>
+        <v>1.012127249976283</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028449139402355</v>
+        <v>0.9978541607044432</v>
       </c>
       <c r="D18">
-        <v>1.038018515530271</v>
+        <v>1.0194199061198</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.044342158911403</v>
+        <v>1.017988573613588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035993853473656</v>
+        <v>1.042885509311009</v>
       </c>
       <c r="J18">
-        <v>1.03460226677478</v>
+        <v>1.024998481096889</v>
       </c>
       <c r="K18">
-        <v>1.04133552317172</v>
+        <v>1.032911639791177</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.047637656900184</v>
+        <v>1.031503860651434</v>
       </c>
       <c r="N18">
-        <v>1.015542662119673</v>
+        <v>1.012272034830763</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028506995314499</v>
+        <v>0.9981480636120315</v>
       </c>
       <c r="D19">
-        <v>1.038064707391242</v>
+        <v>1.019642219477088</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.044401589228704</v>
+        <v>1.018264487832758</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036005595901423</v>
+        <v>1.042963755620116</v>
       </c>
       <c r="J19">
-        <v>1.034632565169339</v>
+        <v>1.025146180325325</v>
       </c>
       <c r="K19">
-        <v>1.041367283335988</v>
+        <v>1.033067529382345</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.047682711296998</v>
+        <v>1.031712333833762</v>
       </c>
       <c r="N19">
-        <v>1.015552730591081</v>
+        <v>1.012321228566529</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028248301899698</v>
+        <v>0.9968298966250962</v>
       </c>
       <c r="D20">
-        <v>1.037858173744377</v>
+        <v>1.018645440932553</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.044135888393976</v>
+        <v>1.017027490007684</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035953012206875</v>
+        <v>1.042612221225641</v>
       </c>
       <c r="J20">
-        <v>1.034497059381418</v>
+        <v>1.02448356976791</v>
       </c>
       <c r="K20">
-        <v>1.041225235528388</v>
+        <v>1.032368168975401</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.047481249926231</v>
+        <v>1.030777396653876</v>
       </c>
       <c r="N20">
-        <v>1.015507699396719</v>
+        <v>1.012100534832049</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02740818299264</v>
+        <v>0.9924767072284043</v>
       </c>
       <c r="D21">
-        <v>1.037187550515812</v>
+        <v>1.015359254759028</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.043273580412133</v>
+        <v>1.012951183813441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0357808529483</v>
+        <v>1.041440865986456</v>
       </c>
       <c r="J21">
-        <v>1.034056448161345</v>
+        <v>1.02229237694652</v>
       </c>
       <c r="K21">
-        <v>1.040763274648305</v>
+        <v>1.030055369120311</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.046826857827375</v>
+        <v>1.027691277165901</v>
       </c>
       <c r="N21">
-        <v>1.015361254579493</v>
+        <v>1.011370725683221</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026880681080028</v>
+        <v>0.9896857544399602</v>
       </c>
       <c r="D22">
-        <v>1.036766555593608</v>
+        <v>1.013256977159003</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.042732583186613</v>
+        <v>1.010344737764729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035671690183964</v>
+        <v>1.040682028531528</v>
       </c>
       <c r="J22">
-        <v>1.033779372539856</v>
+        <v>1.020885421550534</v>
       </c>
       <c r="K22">
-        <v>1.040472714314323</v>
+        <v>1.028570307290691</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.046415868429027</v>
+        <v>1.0257140116586</v>
       </c>
       <c r="N22">
-        <v>1.015269147556466</v>
+        <v>1.010902129130022</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027160251465381</v>
+        <v>0.991170538664118</v>
       </c>
       <c r="D23">
-        <v>1.036989670438976</v>
+        <v>1.014374937742532</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.043019264387198</v>
+        <v>1.011730693159364</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035729646325931</v>
+        <v>1.04108645715737</v>
       </c>
       <c r="J23">
-        <v>1.033926259471149</v>
+        <v>1.021634110311308</v>
       </c>
       <c r="K23">
-        <v>1.040626755515774</v>
+        <v>1.029360558855702</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.04663369813449</v>
+        <v>1.026765776207723</v>
       </c>
       <c r="N23">
-        <v>1.01531797804813</v>
+        <v>1.011151483816389</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028262398565041</v>
+        <v>0.9969019937037503</v>
       </c>
       <c r="D24">
-        <v>1.037869427743152</v>
+        <v>1.018699939286795</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.044150364767782</v>
+        <v>1.017095115076426</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03595588283765</v>
+        <v>1.042631487747979</v>
       </c>
       <c r="J24">
-        <v>1.034504445410947</v>
+        <v>1.024519822603922</v>
       </c>
       <c r="K24">
-        <v>1.041232978438108</v>
+        <v>1.032406432859041</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.047492228436056</v>
+        <v>1.03082852800312</v>
       </c>
       <c r="N24">
-        <v>1.015510153997418</v>
+        <v>1.01211260945546</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029544422117994</v>
+        <v>1.003331184328036</v>
       </c>
       <c r="D25">
-        <v>1.038893110173925</v>
+        <v>1.023569221629535</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.045467962003917</v>
+        <v>1.023140838140136</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036214388809797</v>
+        <v>1.044330410758921</v>
       </c>
       <c r="J25">
-        <v>1.035175153515304</v>
+        <v>1.027746958556305</v>
       </c>
       <c r="K25">
-        <v>1.041935950315076</v>
+        <v>1.035812350655771</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.048490414422779</v>
+        <v>1.035390237537963</v>
       </c>
       <c r="N25">
-        <v>1.015733011252985</v>
+        <v>1.013187452552758</v>
       </c>
     </row>
   </sheetData>
